--- a/quark_status.xlsx
+++ b/quark_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantgiesbrecht/Documents/GitHub/Quark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FF468-4981-3644-8ED9-5C9A361CCDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72FDE42-4970-AC4A-9F2D-09F0E66C2454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2300" windowWidth="28040" windowHeight="17440" xr2:uid="{7B930F0E-45C8-5F49-9465-994502A8C076}"/>
   </bookViews>
